--- a/DOM_Banner/output/dept_banner/Nanda Pullela_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Nanda Pullela_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,349 +360,164 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>publication_date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>publication_date</t>
+          <t>so</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>host_organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>license</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>version</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>language</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Nanda K. Pullela, Deepak Acharya, Madhan Shanmugasundaram, Tushar Acharya, Muhammad Ajmal, Huu Tam Truong, Ranjith Shetty, Kapil D. Lotun</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4229019835</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Transcatheter Closure of Complex Left Circumflex to Coronary Sinus Fistula</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5026844624", "https://openalex.org/A5054902788", "https://openalex.org/A5075143120", "https://openalex.org/A5024739928", "https://openalex.org/A5015211788", "https://openalex.org/A5087967324", "https://openalex.org/A5011382518", "https://openalex.org/A5067438148"), au_display_name = c("Nanda K. Pullela", "Deepak Acharya", "Madhan Shanmugasundaram", "Tushar Acharya", "Muhammad Ajmal", "Huu Tam Truong", "Ranjith Shetty", "Kapil D. Lotun"), au_orcid = c(NA, "https://orcid.org/0000-0002-9635-0798", 
-NA, NA, NA, NA, NA, NA), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Department of Cardiology, Banner University Medical Center, Tucson, Arizona, USA", "Department of Cardiology, Banner University Medical Center, Tucson, Arizona, USA", "Department of Cardiology, Banner University Medical Center, Tucson, Arizona, USA", "Department of Cardiology, Banner University Medical Center, Tucson, Arizona, USA", "Department of Cardiology, Banner University Medical Center, Tucson, Arizona, USA", 
-"Department of Cardiology, Loma Linda University Medical Center, Loma Linda, California, USA", "Department of Cardiology, Carondelet Heart and Vascular Institute, Tucson, Arizona, USA", "Department of Cardiology, Carondelet Heart and Vascular Institute, Tucson, Arizona, USA"), institution_id = c("https://openalex.org/I4210124665", "https://openalex.org/I4210124665", "https://openalex.org/I4210124665", "https://openalex.org/I4210124665", "https://openalex.org/I4210124665", "https://openalex.org/I26347476", 
-"https://openalex.org/I4210131412", "https://openalex.org/I4210131412"), institution_display_name = c("Banner - University Medical Center Tucson", "Banner - University Medical Center Tucson", "Banner - University Medical Center Tucson", "Banner - University Medical Center Tucson", "Banner - University Medical Center Tucson", "Loma Linda University", "Carondelet Health", "Carondelet Health"), institution_ror = c("https://ror.org/02xbk5j62", "https://ror.org/02xbk5j62", "https://ror.org/02xbk5j62", 
-"https://ror.org/02xbk5j62", "https://ror.org/02xbk5j62", "https://ror.org/04bj28v14", "https://ror.org/03qe7zj77", "https://ror.org/03qe7zj77"), institution_country_code = c("US", "US", "US", "US", "US", "US", "US", "US"), institution_type = c("healthcare", "healthcare", "healthcare", "healthcare", "healthcare", "education", "healthcare", "healthcare"), institution_lineage = c("https://openalex.org/I4210124665", "https://openalex.org/I4210124665", "https://openalex.org/I4210124665", "https://openalex.org/I4210124665", 
-"https://openalex.org/I4210124665", "https://openalex.org/I26347476", "https://openalex.org/I4210131412", "https://openalex.org/I4210131412"))</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Coronary artery fistulae connecting the left circumflex to the coronary sinus are rare. Surgical closure of coronary sinus connections is technically challenging because of the location, especially in high-risk surgical patients. We used multimodality imaging to delineate the drainage site and successfully closed a left circumflex to coronary sinus fistula using a transcatheter closure technique. (Level of Difficulty: Advanced.).</t>
+          <t>2022-05-01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>JACC: Case Reports</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>JACC: Case Reports</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S4210180918</t>
+          <t>https://doi.org/10.1016/j.jaccas.2022.03.017</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>cc-by-nc-nd</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2666-0849</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/35573853</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1016/j.jaccas.2022.03.017</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>cc-by-nc-nd</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>559</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>563</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>gold</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.jaccas.2022.03.017</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4229019835</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4229019835", doi = "https://doi.org/10.1016/j.jaccas.2022.03.017", pmid = "https://pubmed.ncbi.nlm.nih.gov/35573853")</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.jaccas.2022.03.017</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W1983990242", "https://openalex.org/W1996926418", "https://openalex.org/W2018698336", "https://openalex.org/W2103476953", "https://openalex.org/W2152895765", "https://openalex.org/W2165738299", "https://openalex.org/W2463640368", "https://openalex.org/W2785591397", "https://openalex.org/W2996950858", "https://openalex.org/W4205907290")</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W1975970486", "https://openalex.org/W2086068388", "https://openalex.org/W2986262685", "https://openalex.org/W113810927", "https://openalex.org/W2348809255", "https://openalex.org/W2072825148", "https://openalex.org/W2989636748", "https://openalex.org/W2084450794", "https://openalex.org/W2158248422", "https://openalex.org/W2274334889")</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Nanda Pullela_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Nanda Pullela_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Department of Cardiology, Banner University Medical Center, Tucson, Arizona, USA; Department of Cardiology, Banner University Medical Center, Tucson, Arizona, USA; Department of Cardiology, Banner University Medical Center, Tucson, Arizona, USA; Department of Cardiology, Banner University Medical Center, Tucson, Arizona, USA; Department of Cardiology, Banner University Medical Center, Tucson, Arizona, USA; Department of Cardiology, Loma Linda University Medical Center, Loma Linda, California, USA; Department of Cardiology, Carondelet Heart and Vascular Institute, Tucson, Arizona, USA; Department of Cardiology, Carondelet Heart and Vascular Institute, Tucson, Arizona, USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4229019835</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Transcatheter Closure of Complex Left Circumflex to Coronary Sinus Fistula</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-05-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>JACC: Case Reports</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jaccas.2022.03.017</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35573853</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jaccas.2022.03.017</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
